--- a/your-code/PivotTable vs Formula Exercise.xlsx
+++ b/your-code/PivotTable vs Formula Exercise.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c646aa9d978bc39d/Documents/Module 4/Week 1/Day 2 - Excel Pivot Tables and Macros/Lab/lab_2_Pivot-tables_vs_formulas/your-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillermo/Documents/Ironhack/M4/W1-W20/2-D2/2-Lab-2/lab-excel-pivot-tables-vs-formulas/your-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A3A7DBBF-F3AC-4897-BE43-8F94BEB89478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7683A57F-D9F9-4F18-9995-6F2FB9CE459C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFEB437-2D0B-474A-A4F4-D33CD00A9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="3" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="RAW data" sheetId="2" r:id="rId2"/>
+    <sheet name="data Edit" sheetId="4" r:id="rId3"/>
+    <sheet name="Pivot" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$E$39</definedName>
-    <definedName name="ARTÍCULOS" localSheetId="1">data!$A$1:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'data Edit'!$A$1:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RAW data'!$A$1:$E$39</definedName>
+    <definedName name="ARTÍCULOS" localSheetId="2">'data Edit'!$A$1:$F$38</definedName>
+    <definedName name="ARTÍCULOS" localSheetId="1">'RAW data'!$A$1:$E$38</definedName>
     <definedName name="ARTÍCULOS">#REF!</definedName>
-    <definedName name="data">data!$A$1:$E$39</definedName>
-    <definedName name="miLista">data!$A$1:$E$4500</definedName>
+    <definedName name="data" localSheetId="2">'data Edit'!$A$1:$F$39</definedName>
+    <definedName name="data">'RAW data'!$A$1:$E$39</definedName>
+    <definedName name="miLista" localSheetId="2">'data Edit'!$A$1:$F$4500</definedName>
+    <definedName name="miLista">'RAW data'!$A$1:$E$4500</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="64" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="77">
   <si>
     <t>China</t>
   </si>
@@ -230,6 +239,48 @@
   </si>
   <si>
     <t>Lamp Base</t>
+  </si>
+  <si>
+    <t>Sum of Price</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Total Sum of Price</t>
+  </si>
+  <si>
+    <t>Total Count of Item</t>
+  </si>
+  <si>
+    <t>Count of Item</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Item Count</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Total Sold</t>
+  </si>
+  <si>
+    <t>Total Count</t>
   </si>
 </sst>
 </file>
@@ -239,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00[$€]_-;\-* #,##0.00[$€]_-;_-* &quot;-&quot;??[$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -303,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +378,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -397,6 +451,640 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guillermo Fiallo Montero" refreshedDate="45819.663086111112" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="38" xr:uid="{B42C3735-D4DC-3249-AE3D-7766A89C8413}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F39" sheet="data Edit"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Section" numFmtId="0">
+      <sharedItems count="5">
+        <s v="CERAMICS"/>
+        <s v="CLOTHING"/>
+        <s v="SPORTS"/>
+        <s v="HARDWARE"/>
+        <s v="TOYS"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="37">
+        <s v="Pipes"/>
+        <s v="Decorative Plate"/>
+        <s v="Tea Set"/>
+        <s v="Ashtray"/>
+        <s v="Flower Pot"/>
+        <s v="China Pitcher"/>
+        <s v="Men's Card"/>
+        <s v="Women's Pants"/>
+        <s v="Men's Shirt"/>
+        <s v="Women's Blouse"/>
+        <s v="Leather Jacket"/>
+        <s v="Men's Coat"/>
+        <s v="Women's Coat"/>
+        <s v="Leather Belt"/>
+        <s v="Tennis Racket"/>
+        <s v="Tracksuit"/>
+        <s v="Electric Train"/>
+        <s v="Olympic Pistol"/>
+        <s v="Skateboard"/>
+        <s v="Basketball"/>
+        <s v="Soccer Ball"/>
+        <s v="Sweatshirt"/>
+        <s v="Mountain Bike"/>
+        <s v="Screwdriver"/>
+        <s v="Handsaw"/>
+        <s v="Wrench"/>
+        <s v="Pliers"/>
+        <s v="Hammer"/>
+        <s v="Large File"/>
+        <s v="Drill Bit Set"/>
+        <s v="Remote Control Car"/>
+        <s v="Walker"/>
+        <s v="Video Game Console"/>
+        <s v="Walking Doll"/>
+        <s v="Soldier Fort"/>
+        <s v="Sound Gun"/>
+        <s v="Lamp Base"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-05-12T00:00:00" maxDate="2019-01-30T00:00:00" count="37">
+        <d v="2019-01-27T00:00:00"/>
+        <d v="2018-12-24T00:00:00"/>
+        <d v="2019-01-15T00:00:00"/>
+        <d v="2018-05-12T00:00:00"/>
+        <d v="2019-01-05T00:00:00"/>
+        <d v="2018-11-23T00:00:00"/>
+        <d v="2018-10-23T00:00:00"/>
+        <d v="2018-09-10T00:00:00"/>
+        <d v="2019-01-07T00:00:00"/>
+        <d v="2018-12-20T00:00:00"/>
+        <d v="2018-09-09T00:00:00"/>
+        <d v="2019-01-14T00:00:00"/>
+        <d v="2019-01-29T00:00:00"/>
+        <d v="2019-01-03T00:00:00"/>
+        <d v="2018-09-14T00:00:00"/>
+        <d v="2018-08-16T00:00:00"/>
+        <d v="2018-07-03T00:00:00"/>
+        <d v="2019-01-04T00:00:00"/>
+        <d v="2019-01-21T00:00:00"/>
+        <d v="2019-01-16T00:00:00"/>
+        <d v="2018-12-08T00:00:00"/>
+        <d v="2018-12-12T00:00:00"/>
+        <d v="2018-11-07T00:00:00"/>
+        <d v="2018-10-05T00:00:00"/>
+        <d v="2018-10-28T00:00:00"/>
+        <d v="2019-01-26T00:00:00"/>
+        <d v="2018-10-17T00:00:00"/>
+        <d v="2019-01-18T00:00:00"/>
+        <d v="2018-11-19T00:00:00"/>
+        <d v="2018-11-06T00:00:00"/>
+        <d v="2018-12-07T00:00:00"/>
+        <d v="2018-12-14T00:00:00"/>
+        <d v="2019-01-19T00:00:00"/>
+        <d v="2018-10-14T00:00:00"/>
+        <d v="2018-10-09T00:00:00"/>
+        <d v="2018-08-05T00:00:00"/>
+        <d v="2018-06-06T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="7"/>
+    </cacheField>
+    <cacheField name="Country" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Price" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.6060726263026939" maxValue="1254.4805452381811"/>
+    </cacheField>
+    <cacheField name="Months (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="months" startDate="2018-05-12T00:00:00" endDate="2019-01-30T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;5/12/18"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;1/30/19"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Quarters (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="quarters" startDate="2018-05-12T00:00:00" endDate="2019-01-30T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;5/12/18"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;1/30/19"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="years" startDate="2018-05-12T00:00:00" endDate="2019-01-30T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;5/12/18"/>
+          <s v="2018"/>
+          <s v="2019"/>
+          <s v="&gt;1/30/19"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="38">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="China"/>
+    <n v="140.35435673674468"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="China"/>
+    <n v="45.07590782878367"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="China"/>
+    <n v="36.06"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Japan"/>
+    <n v="16.45571141802796"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="Spain"/>
+    <n v="24.202757443534914"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="China"/>
+    <n v="106.47530441263088"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <s v="Italy"/>
+    <n v="237.14735614775282"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="7"/>
+    <s v="Morocco"/>
+    <n v="145.19250417703412"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <s v="Spain"/>
+    <n v="55.94220667604246"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="China"/>
+    <n v="84.213816066255575"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="10"/>
+    <s v="Italy"/>
+    <n v="435.5775125311024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="11"/>
+    <s v="Italy"/>
+    <n v="203.268303823639"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="12"/>
+    <s v="Morocco"/>
+    <n v="300.06130323464714"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="13"/>
+    <s v="Spain"/>
+    <n v="3.6060726263026939"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="14"/>
+    <s v="USA"/>
+    <n v="77.891168728138183"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="15"/>
+    <s v="USA"/>
+    <n v="193.39367494861347"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="16"/>
+    <s v="Japan"/>
+    <n v="1254.4805452381811"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="17"/>
+    <s v="Sweden"/>
+    <n v="38.945584364069092"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="18"/>
+    <s v="Morocco"/>
+    <n v="93.036673758609496"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="19"/>
+    <s v="Japan"/>
+    <n v="62.727633334535362"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="20"/>
+    <s v="Spain"/>
+    <n v="36.595627035928501"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="21"/>
+    <s v="USA"/>
+    <n v="365.98031084346042"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="22"/>
+    <s v="USA"/>
+    <n v="470.41818422223025"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="23"/>
+    <s v="Spain"/>
+    <n v="5.5233012392869592"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="24"/>
+    <x v="24"/>
+    <s v="France"/>
+    <n v="25.170386931592802"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="25"/>
+    <x v="2"/>
+    <s v="USA"/>
+    <n v="20.332239491303355"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="26"/>
+    <x v="25"/>
+    <s v="Italy"/>
+    <n v="5.613453054944527"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="27"/>
+    <x v="26"/>
+    <s v="Spain"/>
+    <n v="9.4959912492637599"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="27"/>
+    <s v="France"/>
+    <n v="7.5487120310603055"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="28"/>
+    <x v="28"/>
+    <s v="Spain"/>
+    <n v="18.390970394143739"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="29"/>
+    <x v="29"/>
+    <s v="Taiwan"/>
+    <n v="12.579183344752563"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="30"/>
+    <x v="30"/>
+    <s v="Morocco"/>
+    <n v="132.87175603716659"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="31"/>
+    <s v="Japan"/>
+    <n v="86.113014316108334"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="32"/>
+    <x v="32"/>
+    <s v="USA"/>
+    <n v="368.78703737093264"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="33"/>
+    <x v="33"/>
+    <s v="Spain"/>
+    <n v="87.549433245585561"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="34"/>
+    <x v="34"/>
+    <s v="Japan"/>
+    <n v="119.75166179846862"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="35"/>
+    <x v="35"/>
+    <s v="Spain"/>
+    <n v="47.708340845984637"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="36"/>
+    <x v="36"/>
+    <s v="Turkey"/>
+    <n v="33.133797314677921"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D55AE92-8BB9-D74C-AA51-13B0C2B65FD4}" name="PivotTable12" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="38">
+        <item x="3"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="38">
+        <item x="3"/>
+        <item x="36"/>
+        <item x="16"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="23"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="7"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Price" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Count of Item" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,38 +1376,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68408F57-2609-4CF7-9328-02FE8121296B}">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" zoomScale="138" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -737,29 +1425,29 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="34" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="60" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="34" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="60" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="34.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -793,7 +1481,7 @@
         <v>140.35435673674468</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -810,7 +1498,7 @@
         <v>45.07590782878367</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -827,7 +1515,7 @@
         <v>36.06</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -844,7 +1532,7 @@
         <v>16.45571141802796</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -861,7 +1549,7 @@
         <v>24.202757443534914</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -878,7 +1566,7 @@
         <v>106.47530441263088</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -895,7 +1583,7 @@
         <v>237.14735614775282</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -912,7 +1600,7 @@
         <v>145.19250417703412</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -929,7 +1617,7 @@
         <v>55.94220667604246</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -946,7 +1634,7 @@
         <v>84.213816066255575</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -963,7 +1651,7 @@
         <v>435.5775125311024</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -980,7 +1668,7 @@
         <v>203.268303823639</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1685,7 @@
         <v>300.06130323464714</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1702,7 @@
         <v>3.6060726263026939</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1719,7 @@
         <v>77.891168728138183</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1736,7 @@
         <v>193.39367494861347</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1753,7 @@
         <v>1254.4805452381811</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +1770,7 @@
         <v>38.945584364069092</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1787,7 @@
         <v>93.036673758609496</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1116,7 +1804,7 @@
         <v>62.727633334535362</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1133,7 +1821,7 @@
         <v>36.595627035928501</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1838,7 @@
         <v>365.98031084346042</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1167,7 +1855,7 @@
         <v>470.41818422223025</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1872,7 @@
         <v>5.5233012392869592</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1889,7 @@
         <v>25.170386931592802</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1906,7 @@
         <v>20.332239491303355</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1235,7 +1923,7 @@
         <v>5.613453054944527</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1252,7 +1940,7 @@
         <v>9.4959912492637599</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1957,7 @@
         <v>7.5487120310603055</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -1286,7 +1974,7 @@
         <v>18.390970394143739</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1991,7 @@
         <v>12.579183344752563</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +2008,7 @@
         <v>132.87175603716659</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +2025,7 @@
         <v>86.113014316108334</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +2042,7 @@
         <v>368.78703737093264</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1371,7 +2059,7 @@
         <v>87.549433245585561</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +2076,7 @@
         <v>119.75166179846862</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
@@ -1405,7 +2093,7 @@
         <v>47.708340845984637</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
@@ -1432,4 +2120,1456 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8328CF3E-74AE-6E4B-968F-470C5CC4D5F0}">
+  <sheetPr>
+    <outlinePr applyStyles="1"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="3" width="26.796875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="35" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="61" width="13.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="34.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>2018</v>
+      </c>
+      <c r="M1">
+        <v>2019</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3">
+        <f>YEAR(D2)</f>
+        <v>2019</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43492</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>140.35435673674468</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C39" si="0">YEAR(D3)</f>
+        <v>2018</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43458</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45.07590782878367</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <f>SUMIFS($F$2:$F$39, $A$2:$A$39,J3, $C$2:$C$39, 2018)</f>
+        <v>168.00692365944252</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIFS($A$2:$A$39, J3, $C$2:$C$39, 2018)</f>
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f>SUMIFS($F$2:$F$39, $A$2:$A$39,J3, $C$2:$C$39, 2019)</f>
+        <v>200.6171141802796</v>
+      </c>
+      <c r="N3">
+        <f>COUNTIFS($A$2:$A$39, J3, $C$2:$C$39, 2019)</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f>K3+M3</f>
+        <v>368.62403783972212</v>
+      </c>
+      <c r="P3">
+        <f>L3+N3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43480</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>36.06</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:M6" si="1">SUMIFS($F$2:$F$39, $A$2:$A$39,J4, $C$2:$C$39, 2018)</f>
+        <v>902.13118892214493</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">COUNTIFS($A$2:$A$39, J4, $C$2:$C$39, 2018)</f>
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="3">SUMIFS($F$2:$F$39, $A$2:$A$39,J4, $C$2:$C$39, 2019)</f>
+        <v>562.87788636063124</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N7" si="4">COUNTIFS($A$2:$A$39, J4, $C$2:$C$39, 2019)</f>
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O7" si="5">K4+M4</f>
+        <v>1465.0090752827762</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="6">L4+N4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43232</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6">
+        <v>16.45571141802796</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>71.15983315903982</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>33.494404577308188</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>104.65423773634801</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43470</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6">
+        <v>24.202757443534914</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2398.7595110165521</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>194.70989145721396</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>2593.469402473766</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43427</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>106.47530441263088</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <f>SUMIFS($F$2:$F$39, $A$2:$A$39,J7, $C$2:$C$39, 2018)</f>
+        <v>507.12800355799163</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>368.78703737093264</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>875.91504092892433</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43396</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6">
+        <v>237.14735614775282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43353</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6">
+        <v>145.19250417703412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43472</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6">
+        <v>55.94220667604246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43454</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>84.213816066255575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43352</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6">
+        <v>435.5775125311024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43479</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6">
+        <v>203.268303823639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43494</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6">
+        <v>300.06130323464714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43468</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.6060726263026939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43357</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6">
+        <v>77.891168728138183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43328</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6">
+        <v>193.39367494861347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43284</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1254.4805452381811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43469</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6">
+        <v>38.945584364069092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43486</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6">
+        <v>93.036673758609496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43481</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6">
+        <v>62.727633334535362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43442</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6">
+        <v>36.595627035928501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43446</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6">
+        <v>365.98031084346042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43411</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6">
+        <v>470.41818422223025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16">
+      <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43378</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5.5233012392869592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16">
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43401</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="6">
+        <v>25.170386931592802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43480</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6">
+        <v>20.332239491303355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16">
+      <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43491</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5.613453054944527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16">
+      <c r="A29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43390</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="6">
+        <v>9.4959912492637599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43483</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="6">
+        <v>7.5487120310603055</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16">
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43423</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="6">
+        <v>18.390970394143739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D32" s="4">
+        <v>43410</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="6">
+        <v>12.579183344752563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16">
+      <c r="A33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43441</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="6">
+        <v>132.87175603716659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43448</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="6">
+        <v>86.113014316108334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43484</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="6">
+        <v>368.78703737093264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43387</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="6">
+        <v>87.549433245585561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16">
+      <c r="A37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43382</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="6">
+        <v>119.75166179846862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16">
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43317</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="6">
+        <v>47.708340845984637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16">
+      <c r="A39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D39" s="5">
+        <v>43257</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="8">
+        <v>33.133797314677921</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F36DC3-6C70-B845-A33A-AF24CE707403}">
+  <dimension ref="A3:G83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7">
+      <c r="B3" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
+        <v>168.00692365944252</v>
+      </c>
+      <c r="C6" s="15">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13">
+        <v>200.6171141802796</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13">
+        <v>368.62403783972212</v>
+      </c>
+      <c r="G6" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13">
+        <v>902.13118892214493</v>
+      </c>
+      <c r="C7" s="15">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>562.87788636063124</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1465.0090752827762</v>
+      </c>
+      <c r="G7" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13">
+        <v>71.15983315903982</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13">
+        <v>33.494404577308188</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13">
+        <v>104.65423773634801</v>
+      </c>
+      <c r="G8" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2398.7595110165521</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13">
+        <v>194.70989145721396</v>
+      </c>
+      <c r="E9" s="15">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2593.469402473766</v>
+      </c>
+      <c r="G9" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13">
+        <v>507.12800355799163</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13">
+        <v>368.78703737093264</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>875.91504092892433</v>
+      </c>
+      <c r="G10" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="13">
+        <v>4047.185460315171</v>
+      </c>
+      <c r="C11" s="15">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1360.4863339463657</v>
+      </c>
+      <c r="E11" s="15">
+        <v>14</v>
+      </c>
+      <c r="F11" s="13">
+        <v>5407.6717942615369</v>
+      </c>
+      <c r="G11" s="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIFS('data Edit'!$A$2:$A$39, 'data Edit'!J3, 'data Edit'!D2:D39, 2018)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>